--- a/medicine/Œil et vue/Caroline_Kovarski/Caroline_Kovarski.xlsx
+++ b/medicine/Œil et vue/Caroline_Kovarski/Caroline_Kovarski.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Caroline Kovarski est professeur certifié et auteur d’ouvrages spécialisés. Elle a reçu le prix Roberval enseignement supérieur 2005, pour L’opticien lunetier : guide théorique et pratique, coord. (éditions Tec &amp; Doc), et le prix Handi Livre 2007 du Meilleur Guide, pour La malvoyance chez l’adulte : la comprendre, la vivre mieux, coord. (éditions Vuibert).
 Caroline Kovarski dirige aux éditions Tec &amp; Doc Lavoisier, la collection « Réussir son BTS Opticien Lunetier », une collection de livres d’exercices et d’annales corrigés à destination des candidats au Brevet de technicien supérieur - Opticien lunetier, et la collection « Optique et Vision », collection d’ouvrages destinés à tous les professionnels de l’optique ou non.
@@ -512,7 +524,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L’opticien-lunetier : guide théorique et pratique, édition Tec &amp; Doc Lavoisier, Paris, 2e édition, 2009  (ISBN 978-2-7430-1088-1) (BNF 42050093), 1re édition, 2004  (ISBN 2-7430-0651-X) (BNF 39286494). Prix Roberval Enseignement Supérieur 2005.
 La malvoyance chez l'adulte : la comprendre, la vivre mieux, coordonnateur, éditions Vuibert, Paris, 2007). Prix Handi Livre 2007 du meilleur Guide  (ISBN 978-2-7117-9196-5).
